--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C9A2DAE38AF797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A1AD73-2D21-4160-A120-FDBCD9CA996A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CC395692529787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B79D98-61E1-4ECD-8766-AD601DECF6CB}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1802,9 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CABFDAD2BE9797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04879F2C-D4AE-451E-85D8-037B745D2B6E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CCB3D2B3DEF797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CFD104C-CD60-43C5-9F15-ED745F3B6F15}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CCB3D2B3DEF797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CFD104C-CD60-43C5-9F15-ED745F3B6F15}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CBF85ED2F6D787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591D053A-232C-41F8-A078-99F2AC412748}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CBF85ED2F6D787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591D053A-232C-41F8-A078-99F2AC412748}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C3295AD02DF797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61B5510-65B1-4DA9-9F9B-F035491FB9E4}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C3295AD02DF797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61B5510-65B1-4DA9-9F9B-F035491FB9E4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CB4D5EA213D787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F435C9-F2FF-48D1-9B53-20D44B483303}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CB4D5EA213D787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F435C9-F2FF-48D1-9B53-20D44B483303}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C2F25EC0D3B797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AE847F-DDCF-4AF2-BA47-253CF32DA1EC}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C2F25EC0D3B797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AE847F-DDCF-4AF2-BA47-253CF32DA1EC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C93EDEA392D797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9CC320-0156-4326-B4D8-501CB06E0AA2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C93EDEA392D797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9CC320-0156-4326-B4D8-501CB06E0AA2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C45E5AB02B1787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C438C20-6F7A-465B-B713-706F229CEE5E}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C45E5AB02B1787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C438C20-6F7A-465B-B713-706F229CEE5E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C9555E93991787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318BD033-B0A5-4AAB-8E04-7BFA81F4942F}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C9555E93991787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318BD033-B0A5-4AAB-8E04-7BFA81F4942F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C207D2A334F797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D220006-38D8-4900-A33F-1F524CCDAAA0}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4C207D2A334F797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D220006-38D8-4900-A33F-1F524CCDAAA0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CE4CDAE3981797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2A16B1-73DF-4F60-8BE2-CA9787A79CE7}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CE4CDAE3981797E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2A16B1-73DF-4F60-8BE2-CA9787A79CE7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CF2BDAD3FEF787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D647D2-6754-4E85-89B5-04F8C3111D0D}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/yearly_earnings_df.xlsx
+++ b/yearly_earnings_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CF2BDAD3FEF787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D647D2-6754-4E85-89B5-04F8C3111D0D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F6182FCF6EB08120B2D4CA3356F1CBD787E8300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA219E7-02F9-40A2-9FC7-A053D289138E}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
